--- a/data/tech_2020-01-01.xlsx
+++ b/data/tech_2020-01-01.xlsx
@@ -369,32 +369,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>Symbol</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>Volume</t>
         </is>
       </c>
     </row>
@@ -405,19 +405,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.93</v>
+        <v>289.9299926757812</v>
       </c>
       <c r="C2" t="n">
-        <v>293.68</v>
+        <v>293.6736145019531</v>
       </c>
       <c r="D2" t="n">
-        <v>289.52</v>
+        <v>289.5249938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>293.65</v>
+        <v>293.6499938964844</v>
       </c>
       <c r="F2" t="n">
-        <v>24852852</v>
+        <v>25247625</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1335.79</v>
+        <v>1335.7900390625</v>
       </c>
       <c r="C3" t="n">
-        <v>1340.66</v>
+        <v>1340.660034179688</v>
       </c>
       <c r="D3" t="n">
-        <v>1332.13</v>
+        <v>1332.130004882812</v>
       </c>
       <c r="E3" t="n">
-        <v>1339.39</v>
+        <v>1339.390014648438</v>
       </c>
       <c r="F3" t="n">
-        <v>949620</v>
+        <v>905907</v>
       </c>
     </row>
     <row r="4">
@@ -449,19 +449,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1330.11</v>
+        <v>1330.109985351562</v>
       </c>
       <c r="C4" t="n">
         <v>1338</v>
       </c>
       <c r="D4" t="n">
-        <v>1329.09</v>
+        <v>1329.0849609375</v>
       </c>
       <c r="E4" t="n">
-        <v>1337.02</v>
+        <v>1337.02001953125</v>
       </c>
       <c r="F4" t="n">
-        <v>935570</v>
+        <v>962468</v>
       </c>
     </row>
     <row r="5">
@@ -471,19 +471,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>405.0003</v>
+        <v>405</v>
       </c>
       <c r="C5" t="n">
-        <v>421.29</v>
+        <v>421.2799987792969</v>
       </c>
       <c r="D5" t="n">
-        <v>402.08</v>
+        <v>402.0799865722656</v>
       </c>
       <c r="E5" t="n">
-        <v>418.33</v>
+        <v>418.3299865722656</v>
       </c>
       <c r="F5" t="n">
-        <v>10037407</v>
+        <v>10018750</v>
       </c>
     </row>
   </sheetData>
